--- a/交流管理/项目日报/日报模板.xlsx
+++ b/交流管理/项目日报/日报模板.xlsx
@@ -22,6 +22,30 @@
   </authors>
   <commentList>
     <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+有就写，没有可以不填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +107,10 @@
   </si>
   <si>
     <t>非100%写备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +156,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -474,20 +515,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -495,49 +538,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>43024</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="3">
+        <v>412</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D3" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
